--- a/data/hotels_by_city/Houston/Houston_shard_251.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_251.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d12429517-Reviews-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Four-Points-By-Sheraton-Houston-Intercontinental-Airport.h18277884.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,326 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r590970483-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12429517</t>
+  </si>
+  <si>
+    <t>590970483</t>
+  </si>
+  <si>
+    <t>06/26/2018</t>
+  </si>
+  <si>
+    <t>nice facility but need to work on service</t>
+  </si>
+  <si>
+    <t>We only stayed here for one night on an overnight layover.
+Pros:
+-Very new-looking and clean
+-Rooms were comfortable
+-Restaurant is so cheap!  Not a huge variety, but we did enjoy what we ordered (we got crab cakes, quesadillas, and salads)
+Cons:
+-Two of our guests didn't get picked up by the shuttle!  They called the hotel, were told the shuttle was coming, then waited 30 minutes and 1 hour, respectively, before they called the hotel back and were told them that they should call an Uber instead.  The hotel offered to reimburse, but it was pretty unacceptable that our guests had to wait so long and that they both had to call the hotel, rather than the hotel letting them know there was a problem with the shuttle.
+-In the morning, there was only one girl working at the front desk and literally no one else to be found in the hotel.  The poor girl was dealing with so many problems and angry customers, and I felt terrible that she was all alone!  Management really needs to make sure their hotel is properly staffed!
+-In the morning, there was no one in the restaurant to help us get breakfast.  We waited 20 minutes for someone to show up (while asking the front desk girl several times), and finally she told us that the only waitress on duty hadn't shown up yet (40 minutes after the restaurant opened). Finally we...We only stayed here for one night on an overnight layover.Pros:-Very new-looking and clean-Rooms were comfortable-Restaurant is so cheap!  Not a huge variety, but we did enjoy what we ordered (we got crab cakes, quesadillas, and salads)Cons:-Two of our guests didn't get picked up by the shuttle!  They called the hotel, were told the shuttle was coming, then waited 30 minutes and 1 hour, respectively, before they called the hotel back and were told them that they should call an Uber instead.  The hotel offered to reimburse, but it was pretty unacceptable that our guests had to wait so long and that they both had to call the hotel, rather than the hotel letting them know there was a problem with the shuttle.-In the morning, there was only one girl working at the front desk and literally no one else to be found in the hotel.  The poor girl was dealing with so many problems and angry customers, and I felt terrible that she was all alone!  Management really needs to make sure their hotel is properly staffed!-In the morning, there was no one in the restaurant to help us get breakfast.  We waited 20 minutes for someone to show up (while asking the front desk girl several times), and finally she told us that the only waitress on duty hadn't shown up yet (40 minutes after the restaurant opened). Finally we decided just to get breakfast at the airport, so we got up and asked about the shuttle.  We were informed that the shuttle driver hadn't arrived yet, either, so we ended up calling Ubers.  The whole thing was honestly comical at that point.- This was somewhat out of their control, but the power went out during the night, and when it came back on, the elevator didn't work anymore.  I totally get that it happens, but the poor girl at the front desk was trying to figure out how to fix it while also checking customers out, etc.  It was crazy that they didn't send someone to help her.Nice facility but I can't recommend it until their Management works out their staffing and service issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>We only stayed here for one night on an overnight layover.
+Pros:
+-Very new-looking and clean
+-Rooms were comfortable
+-Restaurant is so cheap!  Not a huge variety, but we did enjoy what we ordered (we got crab cakes, quesadillas, and salads)
+Cons:
+-Two of our guests didn't get picked up by the shuttle!  They called the hotel, were told the shuttle was coming, then waited 30 minutes and 1 hour, respectively, before they called the hotel back and were told them that they should call an Uber instead.  The hotel offered to reimburse, but it was pretty unacceptable that our guests had to wait so long and that they both had to call the hotel, rather than the hotel letting them know there was a problem with the shuttle.
+-In the morning, there was only one girl working at the front desk and literally no one else to be found in the hotel.  The poor girl was dealing with so many problems and angry customers, and I felt terrible that she was all alone!  Management really needs to make sure their hotel is properly staffed!
+-In the morning, there was no one in the restaurant to help us get breakfast.  We waited 20 minutes for someone to show up (while asking the front desk girl several times), and finally she told us that the only waitress on duty hadn't shown up yet (40 minutes after the restaurant opened). Finally we...We only stayed here for one night on an overnight layover.Pros:-Very new-looking and clean-Rooms were comfortable-Restaurant is so cheap!  Not a huge variety, but we did enjoy what we ordered (we got crab cakes, quesadillas, and salads)Cons:-Two of our guests didn't get picked up by the shuttle!  They called the hotel, were told the shuttle was coming, then waited 30 minutes and 1 hour, respectively, before they called the hotel back and were told them that they should call an Uber instead.  The hotel offered to reimburse, but it was pretty unacceptable that our guests had to wait so long and that they both had to call the hotel, rather than the hotel letting them know there was a problem with the shuttle.-In the morning, there was only one girl working at the front desk and literally no one else to be found in the hotel.  The poor girl was dealing with so many problems and angry customers, and I felt terrible that she was all alone!  Management really needs to make sure their hotel is properly staffed!-In the morning, there was no one in the restaurant to help us get breakfast.  We waited 20 minutes for someone to show up (while asking the front desk girl several times), and finally she told us that the only waitress on duty hadn't shown up yet (40 minutes after the restaurant opened). Finally we decided just to get breakfast at the airport, so we got up and asked about the shuttle.  We were informed that the shuttle driver hadn't arrived yet, either, so we ended up calling Ubers.  The whole thing was honestly comical at that point.- This was somewhat out of their control, but the power went out during the night, and when it came back on, the elevator didn't work anymore.  I totally get that it happens, but the poor girl at the front desk was trying to figure out how to fix it while also checking customers out, etc.  It was crazy that they didn't send someone to help her.Nice facility but I can't recommend it until their Management works out their staffing and service issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r581764127-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581764127</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Bridal Shower Event</t>
+  </si>
+  <si>
+    <t>When I tell you 5stars &amp; I mean it... The Staff is sooooo wonderful &amp; very helpful.Special Thanks to Dearyela for all of your above and beyond help the day of My Bridal Shower event she even stayed a little after work to help with set up. Thanks to Tammy for calling me to view table setup 3 days in advance to view &amp; she called the day after to see how my event.Thanks to Brian the sales coordinator for coming on his off day to make sure everything went well The HOTEL room is very clean &amp; so up to date..overall I LOVE this HOTEL &amp; will be returning &amp;  referring othersMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Trilby F, General Manager at Four Points by Sheraton Houston Intercontinental Airport, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>When I tell you 5stars &amp; I mean it... The Staff is sooooo wonderful &amp; very helpful.Special Thanks to Dearyela for all of your above and beyond help the day of My Bridal Shower event she even stayed a little after work to help with set up. Thanks to Tammy for calling me to view table setup 3 days in advance to view &amp; she called the day after to see how my event.Thanks to Brian the sales coordinator for coming on his off day to make sure everything went well The HOTEL room is very clean &amp; so up to date..overall I LOVE this HOTEL &amp; will be returning &amp;  referring othersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r567523529-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567523529</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Overall rating is poor for SO many reasons</t>
+  </si>
+  <si>
+    <t>I usually don't take the time to write a review unless the experience was either excellent OR poor.  In this case, it was poor.  As an example, the body wash dispenser in the shower was not filled up.  I usually go Green at Sheraton hotels to get additional SPG points but since they didn't fill it up I figured I'd have the room cleaned.  Well, they never filled it up.  So I called down and asked them to come fill it up.  One hour later, and no one came. I called the front desk and the phone just kept ringing... no "Please hold", it just kept ringing.  I went down to the front desk and no one was there.  The bartender tried to locate her, even called her and went to the restroom to look for her.  No luck.  Then she appears and said that they've been trying to break in to the housekeeper's room because no one has a key.  I told them to just fill it in the morning.  Return to my room the next day and they still didn't fill it.  On the 5th request they ended up filling up a plastic cup with body wash and gave that to me.  The service was poor every day, and I'm not exaggerating.  I could list out all the details but I'll sum it up instead... no one in the restaurant to serve food, several times the front desk...I usually don't take the time to write a review unless the experience was either excellent OR poor.  In this case, it was poor.  As an example, the body wash dispenser in the shower was not filled up.  I usually go Green at Sheraton hotels to get additional SPG points but since they didn't fill it up I figured I'd have the room cleaned.  Well, they never filled it up.  So I called down and asked them to come fill it up.  One hour later, and no one came. I called the front desk and the phone just kept ringing... no "Please hold", it just kept ringing.  I went down to the front desk and no one was there.  The bartender tried to locate her, even called her and went to the restroom to look for her.  No luck.  Then she appears and said that they've been trying to break in to the housekeeper's room because no one has a key.  I told them to just fill it in the morning.  Return to my room the next day and they still didn't fill it.  On the 5th request they ended up filling up a plastic cup with body wash and gave that to me.  The service was poor every day, and I'm not exaggerating.  I could list out all the details but I'll sum it up instead... no one in the restaurant to serve food, several times the front desk was left unattended for long periods of time, they gave me a spoon to eat my scrambled eggs, the staff yelled at each other while I tried to enjoy a meal after a long day, they forgot the brown sugar and raisins that come with the oatmeal, the restaurant staff openly spoke negatively about a customer that just left, and even though I double-checked that they gave me the Green SPG points upon check out, it was not added to my account.  Everyone kept saying "this is a new hotel", which I was willing to accept that maybe they still needed to work out some of the kinks.  But it turns out it's not new anymore.  It was opened in August.  There doesn't appear to be anyone managing this place.  If there is, they certainly didn't make their presence known during the entire week.  However, the rooms were clean (minus the missing body wash) and the food was mediocre.  Needless to say, I won't be returning to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>I usually don't take the time to write a review unless the experience was either excellent OR poor.  In this case, it was poor.  As an example, the body wash dispenser in the shower was not filled up.  I usually go Green at Sheraton hotels to get additional SPG points but since they didn't fill it up I figured I'd have the room cleaned.  Well, they never filled it up.  So I called down and asked them to come fill it up.  One hour later, and no one came. I called the front desk and the phone just kept ringing... no "Please hold", it just kept ringing.  I went down to the front desk and no one was there.  The bartender tried to locate her, even called her and went to the restroom to look for her.  No luck.  Then she appears and said that they've been trying to break in to the housekeeper's room because no one has a key.  I told them to just fill it in the morning.  Return to my room the next day and they still didn't fill it.  On the 5th request they ended up filling up a plastic cup with body wash and gave that to me.  The service was poor every day, and I'm not exaggerating.  I could list out all the details but I'll sum it up instead... no one in the restaurant to serve food, several times the front desk...I usually don't take the time to write a review unless the experience was either excellent OR poor.  In this case, it was poor.  As an example, the body wash dispenser in the shower was not filled up.  I usually go Green at Sheraton hotels to get additional SPG points but since they didn't fill it up I figured I'd have the room cleaned.  Well, they never filled it up.  So I called down and asked them to come fill it up.  One hour later, and no one came. I called the front desk and the phone just kept ringing... no "Please hold", it just kept ringing.  I went down to the front desk and no one was there.  The bartender tried to locate her, even called her and went to the restroom to look for her.  No luck.  Then she appears and said that they've been trying to break in to the housekeeper's room because no one has a key.  I told them to just fill it in the morning.  Return to my room the next day and they still didn't fill it.  On the 5th request they ended up filling up a plastic cup with body wash and gave that to me.  The service was poor every day, and I'm not exaggerating.  I could list out all the details but I'll sum it up instead... no one in the restaurant to serve food, several times the front desk was left unattended for long periods of time, they gave me a spoon to eat my scrambled eggs, the staff yelled at each other while I tried to enjoy a meal after a long day, they forgot the brown sugar and raisins that come with the oatmeal, the restaurant staff openly spoke negatively about a customer that just left, and even though I double-checked that they gave me the Green SPG points upon check out, it was not added to my account.  Everyone kept saying "this is a new hotel", which I was willing to accept that maybe they still needed to work out some of the kinks.  But it turns out it's not new anymore.  It was opened in August.  There doesn't appear to be anyone managing this place.  If there is, they certainly didn't make their presence known during the entire week.  However, the rooms were clean (minus the missing body wash) and the food was mediocre.  Needless to say, I won't be returning to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r560858533-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560858533</t>
+  </si>
+  <si>
+    <t>02/16/2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel.....but</t>
+  </si>
+  <si>
+    <t>Where to start.  
+We stayed at this hotel 2 nights on consecutive weekends (Feb 3 &amp; 10) before and after going on a cruise out of Galveston.  Both times we did not get into our room until at least 20 minutes after we arrived (no line).  On Feb 10 it was closer to 30 minutes.  We were checking in after 4:30 on both days.  We got the same excuse both days saying that "I don't know what rooms are clean yet".  By 4:30 the front desk should be well aware of the rooms that are clean as check-in time is 3pm.  After long travel days standing in their lobby for that amount of time is more than a minor annoyance.
+As it turned out, both check-ins after waiting the time we waited we were given room 312 the first time then 212 the second time.  Those are both handicap rooms.  This might not seem like a problem but in both the shower is open and the water flows to a drain in the middle of the bathroom.  The first night we stayed it was a minor thing as the water MOSTLY flowed out the drain of the shower.  This is why we didn't really care when we got the handicap room on the second night.  Unfortunately the bathroom was basically flooded (thank god for the drain in the middle of the bathroom) and the floor was soaked and very slippery...Where to start.  We stayed at this hotel 2 nights on consecutive weekends (Feb 3 &amp; 10) before and after going on a cruise out of Galveston.  Both times we did not get into our room until at least 20 minutes after we arrived (no line).  On Feb 10 it was closer to 30 minutes.  We were checking in after 4:30 on both days.  We got the same excuse both days saying that "I don't know what rooms are clean yet".  By 4:30 the front desk should be well aware of the rooms that are clean as check-in time is 3pm.  After long travel days standing in their lobby for that amount of time is more than a minor annoyance.As it turned out, both check-ins after waiting the time we waited we were given room 312 the first time then 212 the second time.  Those are both handicap rooms.  This might not seem like a problem but in both the shower is open and the water flows to a drain in the middle of the bathroom.  The first night we stayed it was a minor thing as the water MOSTLY flowed out the drain of the shower.  This is why we didn't really care when we got the handicap room on the second night.  Unfortunately the bathroom was basically flooded (thank god for the drain in the middle of the bathroom) and the floor was soaked and very slippery especially right in front of the mirror.Oh ya....maybe park the airport shuttle so that people can actually drive their cars up to the hotel's front door and be able to get out of their cars.  The shuttle was nicely parked nicely right in front of the hotel's front doors and I watched at least 3 groups have to drag their luggage up to the doors from the parking lot.  It was like this both times we stayed there.All that being said......It is a very beautiful new hotel less than a year old.....good location to the airport.  The indoor pool was great.  Rooms are nicely furnished (with the exception of the leaking showers).The staff really needs to be improved.  It is most likely a training issue in my view but the staff really don't know what is happening in their hotel.  There needs to be way better communication between the departments.  If I owned this hotel this is where I would start and this hotel would be an above average hotel in no time.The location is good if you are trying to stay near the airport although you need a car to get almost anywhere.  Not much to do or eat in the area though.  Burger King and Popeye's are closest.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Where to start.  
+We stayed at this hotel 2 nights on consecutive weekends (Feb 3 &amp; 10) before and after going on a cruise out of Galveston.  Both times we did not get into our room until at least 20 minutes after we arrived (no line).  On Feb 10 it was closer to 30 minutes.  We were checking in after 4:30 on both days.  We got the same excuse both days saying that "I don't know what rooms are clean yet".  By 4:30 the front desk should be well aware of the rooms that are clean as check-in time is 3pm.  After long travel days standing in their lobby for that amount of time is more than a minor annoyance.
+As it turned out, both check-ins after waiting the time we waited we were given room 312 the first time then 212 the second time.  Those are both handicap rooms.  This might not seem like a problem but in both the shower is open and the water flows to a drain in the middle of the bathroom.  The first night we stayed it was a minor thing as the water MOSTLY flowed out the drain of the shower.  This is why we didn't really care when we got the handicap room on the second night.  Unfortunately the bathroom was basically flooded (thank god for the drain in the middle of the bathroom) and the floor was soaked and very slippery...Where to start.  We stayed at this hotel 2 nights on consecutive weekends (Feb 3 &amp; 10) before and after going on a cruise out of Galveston.  Both times we did not get into our room until at least 20 minutes after we arrived (no line).  On Feb 10 it was closer to 30 minutes.  We were checking in after 4:30 on both days.  We got the same excuse both days saying that "I don't know what rooms are clean yet".  By 4:30 the front desk should be well aware of the rooms that are clean as check-in time is 3pm.  After long travel days standing in their lobby for that amount of time is more than a minor annoyance.As it turned out, both check-ins after waiting the time we waited we were given room 312 the first time then 212 the second time.  Those are both handicap rooms.  This might not seem like a problem but in both the shower is open and the water flows to a drain in the middle of the bathroom.  The first night we stayed it was a minor thing as the water MOSTLY flowed out the drain of the shower.  This is why we didn't really care when we got the handicap room on the second night.  Unfortunately the bathroom was basically flooded (thank god for the drain in the middle of the bathroom) and the floor was soaked and very slippery especially right in front of the mirror.Oh ya....maybe park the airport shuttle so that people can actually drive their cars up to the hotel's front door and be able to get out of their cars.  The shuttle was nicely parked nicely right in front of the hotel's front doors and I watched at least 3 groups have to drag their luggage up to the doors from the parking lot.  It was like this both times we stayed there.All that being said......It is a very beautiful new hotel less than a year old.....good location to the airport.  The indoor pool was great.  Rooms are nicely furnished (with the exception of the leaking showers).The staff really needs to be improved.  It is most likely a training issue in my view but the staff really don't know what is happening in their hotel.  There needs to be way better communication between the departments.  If I owned this hotel this is where I would start and this hotel would be an above average hotel in no time.The location is good if you are trying to stay near the airport although you need a car to get almost anywhere.  Not much to do or eat in the area though.  Burger King and Popeye's are closest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r560151946-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560151946</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>rooms = average. service = mediocre</t>
+  </si>
+  <si>
+    <t>this place is a new property but has very cheap furnishings. my room had nicely made bed but streak stains on living room mirrors. everything worked as it should have but seemed very flimsy and i dunno how it gonna last next year.
+Location is useless unless you have a car. No restaurants nearby or anything, just long stay hotels. Day staff seem to be on point and trying their best, but evening and night staff really seem to be disengaged and not very interested. The evening bartender on the weeknight was hustling and the only one working, but I saw the front desk in the evening, along with overnight front desk and am breakfast server sitting on the lobby couches texting whenever I came down. 
+while i came down and on the couch texting or whatever, the breakfast server meant well but was just not into it. the breakfast was decent, but she was nowhere to be found so I walked out, had my shower, packed, left my room, then found her to close the bill out.
+what was most disappointing was that I was working out Monday at 0530 and the gym was a dump. Towels, garbage, used coffee cups everywhere. But I worked out anyways, and I thought I’d do a 20 min swim once the pool opened. The pool opened at 0600, I went in and there were 0 towels, used towels on the floor everywhere,...this place is a new property but has very cheap furnishings. my room had nicely made bed but streak stains on living room mirrors. everything worked as it should have but seemed very flimsy and i dunno how it gonna last next year.Location is useless unless you have a car. No restaurants nearby or anything, just long stay hotels. Day staff seem to be on point and trying their best, but evening and night staff really seem to be disengaged and not very interested. The evening bartender on the weeknight was hustling and the only one working, but I saw the front desk in the evening, along with overnight front desk and am breakfast server sitting on the lobby couches texting whenever I came down. while i came down and on the couch texting or whatever, the breakfast server meant well but was just not into it. the breakfast was decent, but she was nowhere to be found so I walked out, had my shower, packed, left my room, then found her to close the bill out.what was most disappointing was that I was working out Monday at 0530 and the gym was a dump. Towels, garbage, used coffee cups everywhere. But I worked out anyways, and I thought I’d do a 20 min swim once the pool opened. The pool opened at 0600, I went in and there were 0 towels, used towels on the floor everywhere, and even chairs overturned. Nobody seems to care about this place until management shows up during ‘working’ hours. So I just did bike instead. For a starwood, this is a let down.Pay the extra $10-25 and just stay at the Sheraton iah which is run professionally. Especially if you have no car. Then you close to other restaurants and places.MoreShow less</t>
+  </si>
+  <si>
+    <t>this place is a new property but has very cheap furnishings. my room had nicely made bed but streak stains on living room mirrors. everything worked as it should have but seemed very flimsy and i dunno how it gonna last next year.
+Location is useless unless you have a car. No restaurants nearby or anything, just long stay hotels. Day staff seem to be on point and trying their best, but evening and night staff really seem to be disengaged and not very interested. The evening bartender on the weeknight was hustling and the only one working, but I saw the front desk in the evening, along with overnight front desk and am breakfast server sitting on the lobby couches texting whenever I came down. 
+while i came down and on the couch texting or whatever, the breakfast server meant well but was just not into it. the breakfast was decent, but she was nowhere to be found so I walked out, had my shower, packed, left my room, then found her to close the bill out.
+what was most disappointing was that I was working out Monday at 0530 and the gym was a dump. Towels, garbage, used coffee cups everywhere. But I worked out anyways, and I thought I’d do a 20 min swim once the pool opened. The pool opened at 0600, I went in and there were 0 towels, used towels on the floor everywhere,...this place is a new property but has very cheap furnishings. my room had nicely made bed but streak stains on living room mirrors. everything worked as it should have but seemed very flimsy and i dunno how it gonna last next year.Location is useless unless you have a car. No restaurants nearby or anything, just long stay hotels. Day staff seem to be on point and trying their best, but evening and night staff really seem to be disengaged and not very interested. The evening bartender on the weeknight was hustling and the only one working, but I saw the front desk in the evening, along with overnight front desk and am breakfast server sitting on the lobby couches texting whenever I came down. while i came down and on the couch texting or whatever, the breakfast server meant well but was just not into it. the breakfast was decent, but she was nowhere to be found so I walked out, had my shower, packed, left my room, then found her to close the bill out.what was most disappointing was that I was working out Monday at 0530 and the gym was a dump. Towels, garbage, used coffee cups everywhere. But I worked out anyways, and I thought I’d do a 20 min swim once the pool opened. The pool opened at 0600, I went in and there were 0 towels, used towels on the floor everywhere, and even chairs overturned. Nobody seems to care about this place until management shows up during ‘working’ hours. So I just did bike instead. For a starwood, this is a let down.Pay the extra $10-25 and just stay at the Sheraton iah which is run professionally. Especially if you have no car. Then you close to other restaurants and places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r560112217-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>560112217</t>
+  </si>
+  <si>
+    <t>Great modern and clean hotel. The staff is not that great</t>
+  </si>
+  <si>
+    <t>My flight was cancelled, so I looked for a reasonable priced hotel. I like the 4points brand - only had good experiences with them. This hotel is no exception: everything was new, clean, spacious and the design is very nice, beds are comfortable. There is a restaurant in the hotel lobby - food was ok, nothing special, but adequate for the price. The receptionist, however, was sloppily dressed, didnˋt tell me that I have to book the airport shuttle a day in advance and was not very welcoming. She was sitting in the lobby most of the time playing on her cell phone. Otherwise the hotel was really great</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r558918944-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558918944</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazing stay. Victoria was great from start to finish along with the other staff.  Very much appreciate them for everything they did. We will definitely stay here again next time that we are in town. I can’t say enough about how professional and courteous the staff was. Thank you. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r558918241-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558918241</t>
+  </si>
+  <si>
+    <t>Great hotel with restaurant and great bar.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a month and really enjoyed my stay. The staff is wonderful, rooms clean, beds comfortable and they take care of the guest. The restaurant has great food and the brownie and ice cream sure puts you to bed. If you want a drink at the bar make sure Victoria is your bar tender. She is the best and easy to look at also. She laughs and cuts up with everyone.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r557348305-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557348305</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Still Coming Up to Speed</t>
+  </si>
+  <si>
+    <t>We had two rooms the evening before an early AM flight out of IAH. The hotel is new. The staff was friendly but I think they are still coming up to speed. The rooms were fine. As an SPG gold, I received a coupon for a free drink which was a nice touch. A coffee service was out before our 5:45 complimentary shuttle to the airport.Concerns were that 1) housekeeping was not stellar... the toilet seat was up when I came into the room for the first time and 2) there was no bar soap (I asked about it the next morning at check out and was advised that they had run out of soap a week before and couldn't get more... they had a big bar of Irish Spring but I guess I should have asked the night before). All in all an OK place that will likely get even better with some experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>We had two rooms the evening before an early AM flight out of IAH. The hotel is new. The staff was friendly but I think they are still coming up to speed. The rooms were fine. As an SPG gold, I received a coupon for a free drink which was a nice touch. A coffee service was out before our 5:45 complimentary shuttle to the airport.Concerns were that 1) housekeeping was not stellar... the toilet seat was up when I came into the room for the first time and 2) there was no bar soap (I asked about it the next morning at check out and was advised that they had run out of soap a week before and couldn't get more... they had a big bar of Irish Spring but I guess I should have asked the night before). All in all an OK place that will likely get even better with some experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r549606973-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549606973</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>This place has an indoor pool, but it's NOT heated. The rooms are plain very business like with no character whatsoever. I did however, love the bar and restaurant. The food was excellent and the drinks were great. The only thing this place needs is a sauna. Overall, I will return, at least to eat!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r544494589-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544494589</t>
+  </si>
+  <si>
+    <t>12/01/2017</t>
+  </si>
+  <si>
+    <t>Nice New Hotel</t>
+  </si>
+  <si>
+    <t>Came in for a business meeting the next day, everything is brand new, It's a good business hotel. I was slightly cautious given my read of prior reviews, but for my purposes - business travel who wanted a low brain damage, easy to use hotel - this is perfect for that purpose.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r530427985-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>530427985</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel -  but badly run</t>
+  </si>
+  <si>
+    <t>This is a new hotel and from staff comments it has been open for about three months.The rooms are excellent, well equipped and very comfortable (massive flat screen TV)However the restaurant/ bar was not so good.  I can not complain about the staff who generally were eager to please,  however the bar staff did not know how to pour a beer, the breakfast waiting staff did not turn up so we were served by the chef.I am sure it will improve with time but there needs to be some investment in staff training to bring this hotel up to the standards of the Sheraton group</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r522708646-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522708646</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Nice hotel in an area of town that could use some renovation. Very comfortable place with nice appointments. Restaurant had good prices, which is helpful considering there were no restaurants within walking distance, save for a Denny's, nor that delivered. My only complaint is that the pillows were very unsupportive and uncomfortable.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r520937681-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520937681</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey 8/26/17</t>
+  </si>
+  <si>
+    <t>I stayed here close to IAH, my boyfriend working when worst of Harvey Storm to hit. He made it safe to hotel 8/26/17 just before Worst historical storm.8/27/17 had to move cars 9am because greens bayou overflowed, and constant river flowing end of parking lot causing parking lot to fill with water. Never happened before.Cars and people all safe.The Hotel Staff were more than accommodating under the circumstances. It is a small hotel but very nice hotel. Clean, decent food and nice atmosphere.THESE PEOPLE SHOULD BE COMMENDED FOR THE CHALLENGES THEY FACED</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r510816366-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510816366</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>New hotel, not ready</t>
+  </si>
+  <si>
+    <t>Need to stay close to IAH overnight, saw this new hotel so decided to book it. Everything is indeed new, but just not ready for bushiness in my opinion. My biggest complaint is the shower: The shower only have lukewarm water, which is a dealbreaker for me.  Also, the mirror have a pretty cool touch-enabled light switch built inside the mirror but it does not reliably turn on the lights. There are just these small issues here and there. In my room, the luggage stand is placed at the corner next to a night stand, and there is a huge light on top of them. Naturally you would want to move the lights and this is when you realize you can't move the light although there is a hinge connects the light and the wall. Most of the issues are minor like these. I think the hotel might eventually fix them, however I am not going to be that guy to witness how thing changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Need to stay close to IAH overnight, saw this new hotel so decided to book it. Everything is indeed new, but just not ready for bushiness in my opinion. My biggest complaint is the shower: The shower only have lukewarm water, which is a dealbreaker for me.  Also, the mirror have a pretty cool touch-enabled light switch built inside the mirror but it does not reliably turn on the lights. There are just these small issues here and there. In my room, the luggage stand is placed at the corner next to a night stand, and there is a huge light on top of them. Naturally you would want to move the lights and this is when you realize you can't move the light although there is a hinge connects the light and the wall. Most of the issues are minor like these. I think the hotel might eventually fix them, however I am not going to be that guy to witness how thing changes.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +858,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +890,962 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>76</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_251.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_251.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,16 +147,175 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r614118236-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>12429517</t>
+  </si>
+  <si>
+    <t>614118236</t>
+  </si>
+  <si>
+    <t>Fantastic hotel</t>
+  </si>
+  <si>
+    <t>This is a very welcoming friendly hotel with an outstanding staff. Very clean, modern and luxurious hotel at an unbeatable price. Great bar and restaurant on site. A workout room with a mix of different cardio equipment and weights. The rooms are extremely nice with a blackout shade that really works, large flat screen, usb outlets, mirror that doesn’t fog and has lights you can control, a bed that makes you not want to leave. The staff go above and beyond to make you feel welcome and comfortable. Will definitely be back.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r553046924-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553046924</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This is a new hotel that has a much higher level than its neighborhood properties. Amazing beds with 55 inch Tv and a great staff. The bar/restaurant offers a really complete menu, as well as an ample beverage selection. Free shuttle to the airport is also a plus. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin B, General Manager at Four Points by Sheraton Houston Intercontinental Airport, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>This is a new hotel that has a much higher level than its neighborhood properties. Amazing beds with 55 inch Tv and a great staff. The bar/restaurant offers a really complete menu, as well as an ample beverage selection. Free shuttle to the airport is also a plus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r612984338-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>612984338</t>
+  </si>
+  <si>
+    <t>09/01/2018</t>
+  </si>
+  <si>
+    <t>RMorris</t>
+  </si>
+  <si>
+    <t>I work for a business nearby and we are always looking for hotels for our employees when they are in town. I have had 3 groups of employees stay and they were very impressed. The property is clean and very modern. Initial I met with the sales director to setup corporate rates, she was very professional and made the process quick and easy. The front desk lady is amazing and super nice.They are very accommodating, the rooms are very nice, the restaurant is amazing.I look forward to doing more business with them in the near future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r612416399-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>612416399</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>High end hotel at an incredible value.</t>
+  </si>
+  <si>
+    <t>Very new property with bar and restaurant on site. Exceptionall clean from top to bottom. The housekeeping staff must be working overtime. From the lobby to the bar, the elevators to the room. Eveything was spotless and smelled very fresh and clean. Excellent mattress, large flatscreen tv in the room multiple electrical outless and USB ports for all of my electronics. True blackout blinds in the room made for an excellent nights rest and the bathroom has some of the best lighting I have seen for applying makeup. Staff was very friendly and accommodating to special requests. Can't say enough about my stay. Will be back soon and often.MoreShow less</t>
+  </si>
+  <si>
+    <t>A_McLoone18, Director of Sales at Four Points by Sheraton Houston Intercontinental Airport, responded to this reviewResponded 4 days ago</t>
+  </si>
+  <si>
+    <t>Responded 4 days ago</t>
+  </si>
+  <si>
+    <t>Very new property with bar and restaurant on site. Exceptionall clean from top to bottom. The housekeeping staff must be working overtime. From the lobby to the bar, the elevators to the room. Eveything was spotless and smelled very fresh and clean. Excellent mattress, large flatscreen tv in the room multiple electrical outless and USB ports for all of my electronics. True blackout blinds in the room made for an excellent nights rest and the bathroom has some of the best lighting I have seen for applying makeup. Staff was very friendly and accommodating to special requests. Can't say enough about my stay. Will be back soon and often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r609602433-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>609602433</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Beautiful and Clean New Hotel</t>
+  </si>
+  <si>
+    <t>Met with the Sales Director to tour the hotel and discuss corporate rates. I was very impressed by the quality and cleanliness of the property. The only hotel in the area with a bar and restaurant onsite. This hotel is an exceptional value for the area. Looking forward to visiting again soon!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r608478717-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>608478717</t>
+  </si>
+  <si>
+    <t>08/20/2018</t>
+  </si>
+  <si>
+    <t>Held my Babyshower Here!</t>
+  </si>
+  <si>
+    <t>Held my baby shower here and it was amazing! The management / staff are all brand new and they made my experience so easy going and stress-free by customizing the venue to what I needed and making all the financial requirements / fees clear! The hotel is new and very open spaced, modern elements and beautiful decorations. Will definitely host another event here and refer my friends coming in town to stay here! Super close to Bush IAH as well! Thanks Angela and Cheryl for all your hard work and communication!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>A_McLoone18, Director of Sales at Four Points by Sheraton Houston Intercontinental Airport, responded to this reviewResponded 6 days ago</t>
+  </si>
+  <si>
+    <t>Responded 6 days ago</t>
+  </si>
+  <si>
+    <t>Held my baby shower here and it was amazing! The management / staff are all brand new and they made my experience so easy going and stress-free by customizing the venue to what I needed and making all the financial requirements / fees clear! The hotel is new and very open spaced, modern elements and beautiful decorations. Will definitely host another event here and refer my friends coming in town to stay here! Super close to Bush IAH as well! Thanks Angela and Cheryl for all your hard work and communication!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r605091294-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>605091294</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>New hotel clean and convenient</t>
+  </si>
+  <si>
+    <t>Nice new hotel. Very clean. Cool bar and restaurant on site. Very close to airport. Nice large rooms and comfy bed. Check in was a breeze. Staff were helpful and courteous. There was a shuttle back and forth to airport. MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice new hotel. Very clean. Cool bar and restaurant on site. Very close to airport. Nice large rooms and comfy bed. Check in was a breeze. Staff were helpful and courteous. There was a shuttle back and forth to airport. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r592778167-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592778167</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>My one night stay was fine.  The food at the restaurant was really good. I would recommend the Crab Cakes.  The room was clean and comfortable.  There was some issues in the morning.  The shuttle was not available to get us to the airport.  We had to arrange for other transportation.  When we went downstairs for breakfast, no staff were there to serve us, even though it had been open for 30 min, technically.  We had to leave hungry which is not a pleasant experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>My one night stay was fine.  The food at the restaurant was really good. I would recommend the Crab Cakes.  The room was clean and comfortable.  There was some issues in the morning.  The shuttle was not available to get us to the airport.  We had to arrange for other transportation.  When we went downstairs for breakfast, no staff were there to serve us, even though it had been open for 30 min, technically.  We had to leave hungry which is not a pleasant experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r590970483-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>12429517</t>
   </si>
   <si>
     <t>590970483</t>
@@ -179,12 +338,6 @@
 -In the morning, there was no one in the restaurant to help us get breakfast.  We waited 20 minutes for someone to show up (while asking the front desk girl several times), and finally she told us that the only waitress on duty hadn't shown up yet (40 minutes after the restaurant opened). Finally we...We only stayed here for one night on an overnight layover.Pros:-Very new-looking and clean-Rooms were comfortable-Restaurant is so cheap!  Not a huge variety, but we did enjoy what we ordered (we got crab cakes, quesadillas, and salads)Cons:-Two of our guests didn't get picked up by the shuttle!  They called the hotel, were told the shuttle was coming, then waited 30 minutes and 1 hour, respectively, before they called the hotel back and were told them that they should call an Uber instead.  The hotel offered to reimburse, but it was pretty unacceptable that our guests had to wait so long and that they both had to call the hotel, rather than the hotel letting them know there was a problem with the shuttle.-In the morning, there was only one girl working at the front desk and literally no one else to be found in the hotel.  The poor girl was dealing with so many problems and angry customers, and I felt terrible that she was all alone!  Management really needs to make sure their hotel is properly staffed!-In the morning, there was no one in the restaurant to help us get breakfast.  We waited 20 minutes for someone to show up (while asking the front desk girl several times), and finally she told us that the only waitress on duty hadn't shown up yet (40 minutes after the restaurant opened). Finally we decided just to get breakfast at the airport, so we got up and asked about the shuttle.  We were informed that the shuttle driver hadn't arrived yet, either, so we ended up calling Ubers.  The whole thing was honestly comical at that point.- This was somewhat out of their control, but the power went out during the night, and when it came back on, the elevator didn't work anymore.  I totally get that it happens, but the poor girl at the front desk was trying to figure out how to fix it while also checking customers out, etc.  It was crazy that they didn't send someone to help her.Nice facility but I can't recommend it until their Management works out their staffing and service issues.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>We only stayed here for one night on an overnight layover.
 Pros:
 -Very new-looking and clean
@@ -244,6 +397,56 @@
     <t>I usually don't take the time to write a review unless the experience was either excellent OR poor.  In this case, it was poor.  As an example, the body wash dispenser in the shower was not filled up.  I usually go Green at Sheraton hotels to get additional SPG points but since they didn't fill it up I figured I'd have the room cleaned.  Well, they never filled it up.  So I called down and asked them to come fill it up.  One hour later, and no one came. I called the front desk and the phone just kept ringing... no "Please hold", it just kept ringing.  I went down to the front desk and no one was there.  The bartender tried to locate her, even called her and went to the restroom to look for her.  No luck.  Then she appears and said that they've been trying to break in to the housekeeper's room because no one has a key.  I told them to just fill it in the morning.  Return to my room the next day and they still didn't fill it.  On the 5th request they ended up filling up a plastic cup with body wash and gave that to me.  The service was poor every day, and I'm not exaggerating.  I could list out all the details but I'll sum it up instead... no one in the restaurant to serve food, several times the front desk...I usually don't take the time to write a review unless the experience was either excellent OR poor.  In this case, it was poor.  As an example, the body wash dispenser in the shower was not filled up.  I usually go Green at Sheraton hotels to get additional SPG points but since they didn't fill it up I figured I'd have the room cleaned.  Well, they never filled it up.  So I called down and asked them to come fill it up.  One hour later, and no one came. I called the front desk and the phone just kept ringing... no "Please hold", it just kept ringing.  I went down to the front desk and no one was there.  The bartender tried to locate her, even called her and went to the restroom to look for her.  No luck.  Then she appears and said that they've been trying to break in to the housekeeper's room because no one has a key.  I told them to just fill it in the morning.  Return to my room the next day and they still didn't fill it.  On the 5th request they ended up filling up a plastic cup with body wash and gave that to me.  The service was poor every day, and I'm not exaggerating.  I could list out all the details but I'll sum it up instead... no one in the restaurant to serve food, several times the front desk was left unattended for long periods of time, they gave me a spoon to eat my scrambled eggs, the staff yelled at each other while I tried to enjoy a meal after a long day, they forgot the brown sugar and raisins that come with the oatmeal, the restaurant staff openly spoke negatively about a customer that just left, and even though I double-checked that they gave me the Green SPG points upon check out, it was not added to my account.  Everyone kept saying "this is a new hotel", which I was willing to accept that maybe they still needed to work out some of the kinks.  But it turns out it's not new anymore.  It was opened in August.  There doesn't appear to be anyone managing this place.  If there is, they certainly didn't make their presence known during the entire week.  However, the rooms were clean (minus the missing body wash) and the food was mediocre.  Needless to say, I won't be returning to this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r565189185-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565189185</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>Poorly Managed - Would not recommend this hotel to anyone!!</t>
+  </si>
+  <si>
+    <t>I am a SPG Platinum Preferred member who stays in a hotel an average of 4 nights per week almost every week.  I choose SPG and Hilton as my hotel choices and have the highest status at both chains.  My experience at this property was totally unacceptable for any person, much less a loyal customer.  When I arrived at the hotel for check in the lady at the front desk was busy on her iPhone and took her time to acknowledge my presence.  During the check in process, her small child kept coming out of the office area behind the desk holloring "mommy, mommy....."  Between the personal phone call and the child, the check in process was unprofessional to say the least.  I made my way up to my room where I changed clothes and then proceeded down to the fitness center for my daily workout.  When finished with my workout, I went back to the room to shower and dress for dinner in which I was meeting someone at 7:30.  At 7:00, I left the room and upon arriving at the elevator, realized I left my eyeglasses in the room, so went back to the room to retrieve them.  This is where everything went downhill.....  My key would not work on the door, kept flashing red.  I went to the front desk, where the clerk was once again juggling between her cell phone and guests.  I told her the...I am a SPG Platinum Preferred member who stays in a hotel an average of 4 nights per week almost every week.  I choose SPG and Hilton as my hotel choices and have the highest status at both chains.  My experience at this property was totally unacceptable for any person, much less a loyal customer.  When I arrived at the hotel for check in the lady at the front desk was busy on her iPhone and took her time to acknowledge my presence.  During the check in process, her small child kept coming out of the office area behind the desk holloring "mommy, mommy....."  Between the personal phone call and the child, the check in process was unprofessional to say the least.  I made my way up to my room where I changed clothes and then proceeded down to the fitness center for my daily workout.  When finished with my workout, I went back to the room to shower and dress for dinner in which I was meeting someone at 7:30.  At 7:00, I left the room and upon arriving at the elevator, realized I left my eyeglasses in the room, so went back to the room to retrieve them.  This is where everything went downhill.....  My key would not work on the door, kept flashing red.  I went to the front desk, where the clerk was once again juggling between her cell phone and guests.  I told her the key stopped working and she told me that was because I had the key next to my cell phone and the key was "magnified".  I think she meant Magnetic, but who knows.  Anyway, she reprogrammed the key and I proceeded back up the slow elevator to my room on the 5th floor.  When I arrived at my room at the end of the hallway, I tried again with no luck to enter with the "reprogrammed key" and still did not open my door.  I proceeded back down to the desk and advised the clerk.  She then gave me a new key and said to "try this one".  "if it doesn't work, then call me from the phone by the elevator".  I went back up to the room with the new key and still had the same results.  I called her from the phone by the elevator and she said she would have some one come up "as soon as possible".  I asked what that meant because now, I was late for my dinner reservations. She did not know, so I went back down to the desk.  She then called her maintenance person who was not on property.  He advised her that the room she gave me was supposed to be on block because of a broken lock.  At this time, she says can I just move you to another room.  I tell her that I still need to get into the room because all of my things are in there.  She then got someone else to get on the phone with her maintenance man and he was able to walk him through the process of unlocking the door so that I could retrieve my things.  She gave me keys to another room on the second floor as there was not a closer room available.  I gathered my things (by this time, it was already 7:45 and I was late for my reservation).  I lugged all of my things to the new room with the new key only to find that the key did not work there either (new room, new key, same problem!!) .  By this time, I was furious.  I went back to the desk, where she proceeded to question me as to if I went to the right room.  After this insult, I decided to call the Hilton Garden Inn down the street where I have stayed before.  I was able to get a room there.  She then tells me that she will comp my room.  I told her good because I was leaving.  Another lady appeared from the restaurant area and proceeded to offer me comp dinner.  I was already furious beyond belief at this time and said that I was late for my dinner reservation and did not need them to comp my meals, what I needed was for them to act like professionals and someone who actually cared about their guest to provide me with a room that I was actually able to get into.  As I was walking out the door to go to the Hilton, she tells me "have a good day".  At that point, that ship had sailed as the evening was essentially ruined.  Hotels are practically my "second home" and I can not remember the last time I received such inappropriate behavior and such a sequence of malfunctions.  I would not suggest this property, even though it is a newer property, to anyone regardless of status.  There are many, many hotels in the area and I am certain that you will receive better attention and professionalism.  One final note, as I asked for the General Manager, I was told the property did not have a General Manager.  I guess that explains everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a SPG Platinum Preferred member who stays in a hotel an average of 4 nights per week almost every week.  I choose SPG and Hilton as my hotel choices and have the highest status at both chains.  My experience at this property was totally unacceptable for any person, much less a loyal customer.  When I arrived at the hotel for check in the lady at the front desk was busy on her iPhone and took her time to acknowledge my presence.  During the check in process, her small child kept coming out of the office area behind the desk holloring "mommy, mommy....."  Between the personal phone call and the child, the check in process was unprofessional to say the least.  I made my way up to my room where I changed clothes and then proceeded down to the fitness center for my daily workout.  When finished with my workout, I went back to the room to shower and dress for dinner in which I was meeting someone at 7:30.  At 7:00, I left the room and upon arriving at the elevator, realized I left my eyeglasses in the room, so went back to the room to retrieve them.  This is where everything went downhill.....  My key would not work on the door, kept flashing red.  I went to the front desk, where the clerk was once again juggling between her cell phone and guests.  I told her the...I am a SPG Platinum Preferred member who stays in a hotel an average of 4 nights per week almost every week.  I choose SPG and Hilton as my hotel choices and have the highest status at both chains.  My experience at this property was totally unacceptable for any person, much less a loyal customer.  When I arrived at the hotel for check in the lady at the front desk was busy on her iPhone and took her time to acknowledge my presence.  During the check in process, her small child kept coming out of the office area behind the desk holloring "mommy, mommy....."  Between the personal phone call and the child, the check in process was unprofessional to say the least.  I made my way up to my room where I changed clothes and then proceeded down to the fitness center for my daily workout.  When finished with my workout, I went back to the room to shower and dress for dinner in which I was meeting someone at 7:30.  At 7:00, I left the room and upon arriving at the elevator, realized I left my eyeglasses in the room, so went back to the room to retrieve them.  This is where everything went downhill.....  My key would not work on the door, kept flashing red.  I went to the front desk, where the clerk was once again juggling between her cell phone and guests.  I told her the key stopped working and she told me that was because I had the key next to my cell phone and the key was "magnified".  I think she meant Magnetic, but who knows.  Anyway, she reprogrammed the key and I proceeded back up the slow elevator to my room on the 5th floor.  When I arrived at my room at the end of the hallway, I tried again with no luck to enter with the "reprogrammed key" and still did not open my door.  I proceeded back down to the desk and advised the clerk.  She then gave me a new key and said to "try this one".  "if it doesn't work, then call me from the phone by the elevator".  I went back up to the room with the new key and still had the same results.  I called her from the phone by the elevator and she said she would have some one come up "as soon as possible".  I asked what that meant because now, I was late for my dinner reservations. She did not know, so I went back down to the desk.  She then called her maintenance person who was not on property.  He advised her that the room she gave me was supposed to be on block because of a broken lock.  At this time, she says can I just move you to another room.  I tell her that I still need to get into the room because all of my things are in there.  She then got someone else to get on the phone with her maintenance man and he was able to walk him through the process of unlocking the door so that I could retrieve my things.  She gave me keys to another room on the second floor as there was not a closer room available.  I gathered my things (by this time, it was already 7:45 and I was late for my reservation).  I lugged all of my things to the new room with the new key only to find that the key did not work there either (new room, new key, same problem!!) .  By this time, I was furious.  I went back to the desk, where she proceeded to question me as to if I went to the right room.  After this insult, I decided to call the Hilton Garden Inn down the street where I have stayed before.  I was able to get a room there.  She then tells me that she will comp my room.  I told her good because I was leaving.  Another lady appeared from the restaurant area and proceeded to offer me comp dinner.  I was already furious beyond belief at this time and said that I was late for my dinner reservation and did not need them to comp my meals, what I needed was for them to act like professionals and someone who actually cared about their guest to provide me with a room that I was actually able to get into.  As I was walking out the door to go to the Hilton, she tells me "have a good day".  At that point, that ship had sailed as the evening was essentially ruined.  Hotels are practically my "second home" and I can not remember the last time I received such inappropriate behavior and such a sequence of malfunctions.  I would not suggest this property, even though it is a newer property, to anyone regardless of status.  There are many, many hotels in the area and I am certain that you will receive better attention and professionalism.  One final note, as I asked for the General Manager, I was told the property did not have a General Manager.  I guess that explains everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r562520461-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562520461</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>So clean and modern!</t>
+  </si>
+  <si>
+    <t>Due to a snag with an airline last month, I had to literally book a hotel at the airport, cross my fingers then hope for the best but thankfully I got this one.  The positives first because the negatives are so minimal.
+The shuttle drivers in each direction were so nice; the first one, because the signage in Houston airport is not the best, actually called me on his personal cell to let me know where he was.  The next one was very sweet.
+The check-in process was fast and when I did get into my room, I was surprised to see how spacious it was, clean, and the decor was very modern---even the bathroom mirror had touch options for extra light and a defogger!  There was a microwave and mini-fridge there as well and free coffee in the lobby.
+Everyone that worked there was so polite and after the flight fiasco, it was such a pleasure to see those smiling faces. 
+The negatives, albeit small, still need to be addressed.  The night-time clerk when I called from the airport had no idea on how to direct me to the proper door location for pick-up at the airport.  Further, upon check-in I was assigned a room number that did not exist---I found this out after going to my floor, walking around, finding a room map and realizing there must have been an error: there was.  When I asked about toiletries,...Due to a snag with an airline last month, I had to literally book a hotel at the airport, cross my fingers then hope for the best but thankfully I got this one.  The positives first because the negatives are so minimal.The shuttle drivers in each direction were so nice; the first one, because the signage in Houston airport is not the best, actually called me on his personal cell to let me know where he was.  The next one was very sweet.The check-in process was fast and when I did get into my room, I was surprised to see how spacious it was, clean, and the decor was very modern---even the bathroom mirror had touch options for extra light and a defogger!  There was a microwave and mini-fridge there as well and free coffee in the lobby.Everyone that worked there was so polite and after the flight fiasco, it was such a pleasure to see those smiling faces. The negatives, albeit small, still need to be addressed.  The night-time clerk when I called from the airport had no idea on how to direct me to the proper door location for pick-up at the airport.  Further, upon check-in I was assigned a room number that did not exist---I found this out after going to my floor, walking around, finding a room map and realizing there must have been an error: there was.  When I asked about toiletries, she was not aware that right behind her was a drawer with small packets of tooth paste (the lovely lady the next morning kindling gave me some). I think a little extra training is needed because being an airport hotel, chances are, the majority of the guests will be from out-of-town, and awareness of the little things like packets of toothpaste would have save me a dreadful night.The restaurant was slated to open at 6am and I went down to get breakfast. About 6:20 the front desk clerk asked if I was there for the restaurant, and when I noted yes, she turned on the lights and then the cook came out to serve me. The location, as with most airport hotels, is remote and when I walked down to the gas station to find some toiletries (my checked bag was still at the airport) I ran into a feral dog.  Not the best place to walk at night!Aside from those minor things, I loved my overnight stay because the bed was comfortable, it was spotless and not a hint of second-hand smoke. I would highly recommend this hotel.  I am sure with this feedback and a bit of extra training for the staff, a future review will be a 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Due to a snag with an airline last month, I had to literally book a hotel at the airport, cross my fingers then hope for the best but thankfully I got this one.  The positives first because the negatives are so minimal.
+The shuttle drivers in each direction were so nice; the first one, because the signage in Houston airport is not the best, actually called me on his personal cell to let me know where he was.  The next one was very sweet.
+The check-in process was fast and when I did get into my room, I was surprised to see how spacious it was, clean, and the decor was very modern---even the bathroom mirror had touch options for extra light and a defogger!  There was a microwave and mini-fridge there as well and free coffee in the lobby.
+Everyone that worked there was so polite and after the flight fiasco, it was such a pleasure to see those smiling faces. 
+The negatives, albeit small, still need to be addressed.  The night-time clerk when I called from the airport had no idea on how to direct me to the proper door location for pick-up at the airport.  Further, upon check-in I was assigned a room number that did not exist---I found this out after going to my floor, walking around, finding a room map and realizing there must have been an error: there was.  When I asked about toiletries,...Due to a snag with an airline last month, I had to literally book a hotel at the airport, cross my fingers then hope for the best but thankfully I got this one.  The positives first because the negatives are so minimal.The shuttle drivers in each direction were so nice; the first one, because the signage in Houston airport is not the best, actually called me on his personal cell to let me know where he was.  The next one was very sweet.The check-in process was fast and when I did get into my room, I was surprised to see how spacious it was, clean, and the decor was very modern---even the bathroom mirror had touch options for extra light and a defogger!  There was a microwave and mini-fridge there as well and free coffee in the lobby.Everyone that worked there was so polite and after the flight fiasco, it was such a pleasure to see those smiling faces. The negatives, albeit small, still need to be addressed.  The night-time clerk when I called from the airport had no idea on how to direct me to the proper door location for pick-up at the airport.  Further, upon check-in I was assigned a room number that did not exist---I found this out after going to my floor, walking around, finding a room map and realizing there must have been an error: there was.  When I asked about toiletries, she was not aware that right behind her was a drawer with small packets of tooth paste (the lovely lady the next morning kindling gave me some). I think a little extra training is needed because being an airport hotel, chances are, the majority of the guests will be from out-of-town, and awareness of the little things like packets of toothpaste would have save me a dreadful night.The restaurant was slated to open at 6am and I went down to get breakfast. About 6:20 the front desk clerk asked if I was there for the restaurant, and when I noted yes, she turned on the lights and then the cook came out to serve me. The location, as with most airport hotels, is remote and when I walked down to the gas station to find some toiletries (my checked bag was still at the airport) I ran into a feral dog.  Not the best place to walk at night!Aside from those minor things, I loved my overnight stay because the bed was comfortable, it was spotless and not a hint of second-hand smoke. I would highly recommend this hotel.  I am sure with this feedback and a bit of extra training for the staff, a future review will be a 5.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r560858533-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -259,9 +462,6 @@
     <t>Where to start.  
 We stayed at this hotel 2 nights on consecutive weekends (Feb 3 &amp; 10) before and after going on a cruise out of Galveston.  Both times we did not get into our room until at least 20 minutes after we arrived (no line).  On Feb 10 it was closer to 30 minutes.  We were checking in after 4:30 on both days.  We got the same excuse both days saying that "I don't know what rooms are clean yet".  By 4:30 the front desk should be well aware of the rooms that are clean as check-in time is 3pm.  After long travel days standing in their lobby for that amount of time is more than a minor annoyance.
 As it turned out, both check-ins after waiting the time we waited we were given room 312 the first time then 212 the second time.  Those are both handicap rooms.  This might not seem like a problem but in both the shower is open and the water flows to a drain in the middle of the bathroom.  The first night we stayed it was a minor thing as the water MOSTLY flowed out the drain of the shower.  This is why we didn't really care when we got the handicap room on the second night.  Unfortunately the bathroom was basically flooded (thank god for the drain in the middle of the bathroom) and the floor was soaked and very slippery...Where to start.  We stayed at this hotel 2 nights on consecutive weekends (Feb 3 &amp; 10) before and after going on a cruise out of Galveston.  Both times we did not get into our room until at least 20 minutes after we arrived (no line).  On Feb 10 it was closer to 30 minutes.  We were checking in after 4:30 on both days.  We got the same excuse both days saying that "I don't know what rooms are clean yet".  By 4:30 the front desk should be well aware of the rooms that are clean as check-in time is 3pm.  After long travel days standing in their lobby for that amount of time is more than a minor annoyance.As it turned out, both check-ins after waiting the time we waited we were given room 312 the first time then 212 the second time.  Those are both handicap rooms.  This might not seem like a problem but in both the shower is open and the water flows to a drain in the middle of the bathroom.  The first night we stayed it was a minor thing as the water MOSTLY flowed out the drain of the shower.  This is why we didn't really care when we got the handicap room on the second night.  Unfortunately the bathroom was basically flooded (thank god for the drain in the middle of the bathroom) and the floor was soaked and very slippery especially right in front of the mirror.Oh ya....maybe park the airport shuttle so that people can actually drive their cars up to the hotel's front door and be able to get out of their cars.  The shuttle was nicely parked nicely right in front of the hotel's front doors and I watched at least 3 groups have to drag their luggage up to the doors from the parking lot.  It was like this both times we stayed there.All that being said......It is a very beautiful new hotel less than a year old.....good location to the airport.  The indoor pool was great.  Rooms are nicely furnished (with the exception of the leaking showers).The staff really needs to be improved.  It is most likely a training issue in my view but the staff really don't know what is happening in their hotel.  There needs to be way better communication between the departments.  If I owned this hotel this is where I would start and this hotel would be an above average hotel in no time.The location is good if you are trying to stay near the airport although you need a car to get almost anywhere.  Not much to do or eat in the area though.  Burger King and Popeye's are closest.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
@@ -296,19 +496,40 @@
 what was most disappointing was that I was working out Monday at 0530 and the gym was a dump. Towels, garbage, used coffee cups everywhere. But I worked out anyways, and I thought I’d do a 20 min swim once the pool opened. The pool opened at 0600, I went in and there were 0 towels, used towels on the floor everywhere,...this place is a new property but has very cheap furnishings. my room had nicely made bed but streak stains on living room mirrors. everything worked as it should have but seemed very flimsy and i dunno how it gonna last next year.Location is useless unless you have a car. No restaurants nearby or anything, just long stay hotels. Day staff seem to be on point and trying their best, but evening and night staff really seem to be disengaged and not very interested. The evening bartender on the weeknight was hustling and the only one working, but I saw the front desk in the evening, along with overnight front desk and am breakfast server sitting on the lobby couches texting whenever I came down. while i came down and on the couch texting or whatever, the breakfast server meant well but was just not into it. the breakfast was decent, but she was nowhere to be found so I walked out, had my shower, packed, left my room, then found her to close the bill out.what was most disappointing was that I was working out Monday at 0530 and the gym was a dump. Towels, garbage, used coffee cups everywhere. But I worked out anyways, and I thought I’d do a 20 min swim once the pool opened. The pool opened at 0600, I went in and there were 0 towels, used towels on the floor everywhere, and even chairs overturned. Nobody seems to care about this place until management shows up during ‘working’ hours. So I just did bike instead. For a starwood, this is a let down.Pay the extra $10-25 and just stay at the Sheraton iah which is run professionally. Especially if you have no car. Then you close to other restaurants and places.More</t>
   </si>
   <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r560112217-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>560112217</t>
-  </si>
-  <si>
-    <t>Great modern and clean hotel. The staff is not that great</t>
-  </si>
-  <si>
-    <t>My flight was cancelled, so I looked for a reasonable priced hotel. I like the 4points brand - only had good experiences with them. This hotel is no exception: everything was new, clean, spacious and the design is very nice, beds are comfortable. There is a restaurant in the hotel lobby - food was ok, nothing special, but adequate for the price. The receptionist, however, was sloppily dressed, didnˋt tell me that I have to book the airport shuttle a day in advance and was not very welcoming. She was sitting in the lobby most of the time playing on her cell phone. Otherwise the hotel was really great</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r559880974-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559880974</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is new. The desk staff was friendly and fast. Rooms are a little smaller than expected but they’re equipped with everything. My wife loved the mirror light. Having the restaurant in the hotel made it a better night. We ordered room service and the food was great and didn’t take long to be brought up. The gm was nice even brought more towels to my room when I requested extra. Will most definitely be returning to this hotel when we come and visit. Thank you Four Points. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r558919655-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558919655</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Housekeeping lacking</t>
+  </si>
+  <si>
+    <t>Our room 528 is not very clean, if this is a new hotel,  then tell me why there is black mold in the corner of our shower? The caulking is cracked and not properly installed, so if someone doesn't say something, you will have a huge can of worms to deal with in a short amount of time.  The shower glass is not clean either,  full of soap scum and there is  spilled wine on the inside of the bathroom wall, so I guess the last people in here tripped as they were heading into the washroom.  We are platinum members, so yes. We notice everything....The tall guy at the front desk was really friendly today.  We are here for the next four days, so hoping the pool and gym will be great.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Our room 528 is not very clean, if this is a new hotel,  then tell me why there is black mold in the corner of our shower? The caulking is cracked and not properly installed, so if someone doesn't say something, you will have a huge can of worms to deal with in a short amount of time.  The shower glass is not clean either,  full of soap scum and there is  spilled wine on the inside of the bathroom wall, so I guess the last people in here tripped as they were heading into the washroom.  We are platinum members, so yes. We notice everything....The tall guy at the front desk was really friendly today.  We are here for the next four days, so hoping the pool and gym will be great.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r558918944-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
@@ -317,9 +538,6 @@
     <t>558918944</t>
   </si>
   <si>
-    <t>02/06/2018</t>
-  </si>
-  <si>
     <t>Great service</t>
   </si>
   <si>
@@ -359,6 +577,39 @@
     <t>We had two rooms the evening before an early AM flight out of IAH. The hotel is new. The staff was friendly but I think they are still coming up to speed. The rooms were fine. As an SPG gold, I received a coupon for a free drink which was a nice touch. A coffee service was out before our 5:45 complimentary shuttle to the airport.Concerns were that 1) housekeeping was not stellar... the toilet seat was up when I came into the room for the first time and 2) there was no bar soap (I asked about it the next morning at check out and was advised that they had run out of soap a week before and couldn't get more... they had a big bar of Irish Spring but I guess I should have asked the night before). All in all an OK place that will likely get even better with some experience!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r554842237-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554842237</t>
+  </si>
+  <si>
+    <t>01/19/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel - Service not so good</t>
+  </si>
+  <si>
+    <t>I have almost 8oo nights - on what appeared to be a slow night - no upgrade and no receipt sent out. The front desk person didn't really communicate very well for me - I kept asking for my platinum amenity points - and seemed like she had no idea what I was talking about.Then I asked to have my receipt emailed - yes I will send. Of course it never came.  This hotel needs to train everyone in there again to step it up a notch. I am not that demanding of a customer but these are pretty basic things.  The woman working the bar and restaurant was exceedingly nice and handled the restaurant and bar quite well.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have almost 8oo nights - on what appeared to be a slow night - no upgrade and no receipt sent out. The front desk person didn't really communicate very well for me - I kept asking for my platinum amenity points - and seemed like she had no idea what I was talking about.Then I asked to have my receipt emailed - yes I will send. Of course it never came.  This hotel needs to train everyone in there again to step it up a notch. I am not that demanding of a customer but these are pretty basic things.  The woman working the bar and restaurant was exceedingly nice and handled the restaurant and bar quite well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r553424005-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553424005</t>
+  </si>
+  <si>
+    <t>01/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice layover in Houston </t>
+  </si>
+  <si>
+    <t>We had a 10 hours layover in Houston during the night and choose this hotel as an SPG member. The service was good, I also ask them to receive a package from Amazon on my behalf and they have it as soon as we check-in for us.The restaurant was great and the service from the waitress was impressively good in her attention, thanks.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r549606973-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -377,9 +628,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r544494589-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -413,6 +661,45 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r523999473-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523999473</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Gave away my room-Refused refund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not only was my room paid for an extra day and noted that I'd arrive early morning, but the receptionist here told me she'd "waive the cancelation fee".  Let me get this straight: Product was paid, but not provided, and she's graciously offering to NOT charge me an extra fee. It is unconscionable to give away rooms that are bought and paid. </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r522918768-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522918768</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel - great staa</t>
+  </si>
+  <si>
+    <t>Was stuck in Houston over Hurricane Harvey. Ended up staying a week. Rooms are nice size. Bathroom amenites were good.Staff was excellent over the week. Especially Travis who was more than helpful.Hotel was short staffed, so hotel guests helped out in the kitchen.Hotel ownership is another story- when a stranded guest discovered her credit card was nearing it's limit, the owner wanted to kick her out and send her to a shelter. There were other instances that made those of us stuck in the hotel wonder why they were in the customer service business. Had to ask for housekeeping after nothing but fresh towels for 4 days. Didn't have fresh linen change for the entire weekMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Was stuck in Houston over Hurricane Harvey. Ended up staying a week. Rooms are nice size. Bathroom amenites were good.Staff was excellent over the week. Especially Travis who was more than helpful.Hotel was short staffed, so hotel guests helped out in the kitchen.Hotel ownership is another story- when a stranded guest discovered her credit card was nearing it's limit, the owner wanted to kick her out and send her to a shelter. There were other instances that made those of us stuck in the hotel wonder why they were in the customer service business. Had to ask for housekeeping after nothing but fresh towels for 4 days. Didn't have fresh linen change for the entire weekMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r522708646-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -428,9 +715,6 @@
     <t>Nice hotel in an area of town that could use some renovation. Very comfortable place with nice appointments. Restaurant had good prices, which is helpful considering there were no restaurants within walking distance, save for a Denny's, nor that delivered. My only complaint is that the pillows were very unsupportive and uncomfortable.</t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r520937681-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -446,9 +730,6 @@
     <t>I stayed here close to IAH, my boyfriend working when worst of Harvey Storm to hit. He made it safe to hotel 8/26/17 just before Worst historical storm.8/27/17 had to move cars 9am because greens bayou overflowed, and constant river flowing end of parking lot causing parking lot to fill with water. Never happened before.Cars and people all safe.The Hotel Staff were more than accommodating under the circumstances. It is a small hotel but very nice hotel. Clean, decent food and nice atmosphere.THESE PEOPLE SHOULD BE COMMENDED FOR THE CHALLENGES THEY FACED</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r510816366-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -465,6 +746,27 @@
   </si>
   <si>
     <t>Need to stay close to IAH overnight, saw this new hotel so decided to book it. Everything is indeed new, but just not ready for bushiness in my opinion. My biggest complaint is the shower: The shower only have lukewarm water, which is a dealbreaker for me.  Also, the mirror have a pretty cool touch-enabled light switch built inside the mirror but it does not reliably turn on the lights. There are just these small issues here and there. In my room, the luggage stand is placed at the corner next to a night stand, and there is a huge light on top of them. Naturally you would want to move the lights and this is when you realize you can't move the light although there is a hinge connects the light and the wall. Most of the issues are minor like these. I think the hotel might eventually fix them, however I am not going to be that guy to witness how thing changes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d12429517-r508975621-Four_Points_by_Sheraton_Houston_Intercontinental_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508975621</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bait and switch </t>
+  </si>
+  <si>
+    <t>Stayed July 30th and there were maybe 6 cars in the parking lot. I asked for the platinum upgrade and was told that none were available. So I looked it up on my phone and there were. The girl then said that she was going upstairs to see if there were. She came back down and said someone was still in the room. I asked her if they only had one suite she said only one. I looked on there webpage it says ten. So, I was coming back through Houston a week later and looked on spg.com to see what their rate was. When it pulled up on their page it was anywhere from $10 to $30 higher when you got to the booking screen. When I asked about that they said it's just how it works. BAIT &amp; SWITCHMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Stayed July 30th and there were maybe 6 cars in the parking lot. I asked for the platinum upgrade and was told that none were available. So I looked it up on my phone and there were. The girl then said that she was going upstairs to see if there were. She came back down and said someone was still in the room. I asked her if they only had one suite she said only one. I looked on there webpage it says ten. So, I was coming back through Houston a week later and looked on spg.com to see what their rate was. When it pulled up on their page it was anywhere from $10 to $30 higher when you got to the booking screen. When I asked about that they said it's just how it works. BAIT &amp; SWITCHMore</t>
   </si>
 </sst>
 </file>
@@ -990,42 +1292,36 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1041,7 +1337,7 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>45</v>
@@ -1050,26 +1346,22 @@
         <v>46</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1080,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1102,7 +1394,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1111,43 +1403,39 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1163,7 +1451,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1172,43 +1460,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1224,7 +1512,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1233,45 +1521,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1287,7 +1569,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1296,25 +1578,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
         <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1325,10 +1607,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+      <c r="X7" t="s">
+        <v>84</v>
+      </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1344,7 +1630,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1353,25 +1639,25 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" t="s">
-        <v>93</v>
-      </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1382,10 +1668,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>83</v>
+      </c>
+      <c r="X8" t="s">
+        <v>84</v>
+      </c>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
@@ -1401,7 +1691,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1410,39 +1700,47 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>96</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>97</v>
       </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>98</v>
-      </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>83</v>
+      </c>
+      <c r="X9" t="s">
+        <v>84</v>
+      </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
@@ -1482,26 +1780,32 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>76</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>70</v>
+      </c>
+      <c r="X10" t="s">
+        <v>71</v>
+      </c>
       <c r="Y10" t="s">
         <v>104</v>
       </c>
@@ -1540,13 +1844,13 @@
         <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1557,10 +1861,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>111</v>
+      </c>
+      <c r="X11" t="s">
+        <v>112</v>
+      </c>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1884,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1585,35 +1893,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>51</v>
+      </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s"/>
-      <c r="X12" t="s"/>
+      <c r="W12" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" t="s">
+        <v>71</v>
+      </c>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
@@ -1629,7 +1949,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1638,39 +1958,49 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>119</v>
       </c>
-      <c r="K13" t="s">
-        <v>120</v>
-      </c>
-      <c r="L13" t="s">
-        <v>121</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="O13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
         <v>3</v>
       </c>
-      <c r="N13" t="s">
-        <v>122</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>70</v>
+      </c>
+      <c r="X13" t="s">
+        <v>71</v>
+      </c>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -1686,7 +2016,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -1695,39 +2025,43 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>133</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -1743,7 +2077,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1752,39 +2086,43 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
         <v>132</v>
       </c>
-      <c r="L15" t="s">
-        <v>133</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>134</v>
-      </c>
       <c r="O15" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16">
@@ -1800,7 +2138,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1809,35 +2147,37 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
       <c r="R16" t="n">
         <v>3</v>
       </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1845,7 +2185,941 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="O17" t="s">
         <v>140</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>132</v>
+      </c>
+      <c r="O18" t="s">
+        <v>158</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>132</v>
+      </c>
+      <c r="O19" t="s">
+        <v>51</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>140</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" t="s">
+        <v>179</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>158</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" t="s">
+        <v>189</v>
+      </c>
+      <c r="L24" t="s">
+        <v>190</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>191</v>
+      </c>
+      <c r="O24" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
+        <v>199</v>
+      </c>
+      <c r="K26" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>51</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>208</v>
+      </c>
+      <c r="O27" t="s">
+        <v>51</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>209</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>210</v>
+      </c>
+      <c r="J28" t="s">
+        <v>211</v>
+      </c>
+      <c r="K28" t="s">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>214</v>
+      </c>
+      <c r="O28" t="s">
+        <v>51</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>208</v>
+      </c>
+      <c r="O29" t="s">
+        <v>140</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>214</v>
+      </c>
+      <c r="O30" t="s">
+        <v>158</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>227</v>
+      </c>
+      <c r="J31" t="s">
+        <v>228</v>
+      </c>
+      <c r="K31" t="s">
+        <v>229</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>214</v>
+      </c>
+      <c r="O31" t="s">
+        <v>133</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66128</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+      <c r="O32" t="s">
+        <v>51</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
